--- a/medicine/Enfance/David_Walliams/David_Walliams.xlsx
+++ b/medicine/Enfance/David_Walliams/David_Walliams.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Walliams, de son vrai nom David Edward Williams, né le 20 août 1971 à Wimbledon (Grand Londres), est un acteur, scénariste anglais. Depuis 2008, il écrit également des livres pour enfants. 
 </t>
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David Walliams est né le 20 août 1971 à Wimbledon (Grand Londres) de Peter, ingénieur à Transport for London, et Kathleen, technicienne de laboratoire. Ils vivent à Nork, près de Banstead dans le Surrey[1]. David étudie le théâtre à l'Université de Bristol[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Walliams est né le 20 août 1971 à Wimbledon (Grand Londres) de Peter, ingénieur à Transport for London, et Kathleen, technicienne de laboratoire. Ils vivent à Nork, près de Banstead dans le Surrey. David étudie le théâtre à l'Université de Bristol.
 En Angleterre, il est apparu dans de nombreuses séries comiques depuis le milieu des années 1990. Il s'est fait connaître grâce à son partenariat avec Matt Lucas pour la série de sketchs Little Britain, ainsi que sa précédente, Rock profile.
-En novembre 2008, il sort son premier roman pour enfants Le Jour où je me suis déguisée en fille (The Boy In The Dress). Le roman reçoit le Prix Roald Dahl de l'humour (7-14 ans), récompensant les auteurs plaçant l'humour au centre de l'histoire et du plaisir de lire[2]. A contrario, il est décrit par le quotidien Le Figaro comme un « petit morceau de propagande »[3]. Depuis, il sort d'autres livres pour enfants au rythme de un par an. Certains ont été adaptés à la télévision.
+En novembre 2008, il sort son premier roman pour enfants Le Jour où je me suis déguisée en fille (The Boy In The Dress). Le roman reçoit le Prix Roald Dahl de l'humour (7-14 ans), récompensant les auteurs plaçant l'humour au centre de l'histoire et du plaisir de lire. A contrario, il est décrit par le quotidien Le Figaro comme un « petit morceau de propagande ». Depuis, il sort d'autres livres pour enfants au rythme de un par an. Certains ont été adaptés à la télévision.
 Depuis 2009, il fait des spectacles d'humour et des pièces de théâtre à Londres tout en réalisant des projets extérieurs reliés à l'écriture et aux films.
 En 2010, il apparait dans le clip Alejandro de la chanteuse Lady Gaga.
-En 2012, il devient juge dans l'émission Britain's Got Talent sur ITV1[4].
-Il se consacre à de nombreuses associations caritatives. Il a été membre de l'association National Youth Theatre qui aide les jeunes en difficulté au travers d'activités créatives, où il a rencontré son collègue de Little Britain Matt Lucas. Pour l'association Comic Relief, il relève plusieurs exploits sportifs dans le cadre de l'évènement Sport Relief. En août 2006, après neuf mois d'entrainement avec le champion olympique de pentathlon moderne Greg Whyte, il traverse la Manche à la nage en 10h34, rassemblant près d'un million de livres[5]. En mars 2008, il traverse le détroit de Gibraltar en 4h36 avec le champion olympique d'aviron James Cracknell[6]. En septembre 2011, il descend la Tamise à la nage sur 140 miles (225 km), de Lechlade à Londres, ce qui lui prend huit jours. Son exploit sportif rapporte plus d'un million de livres à l'association[7].
-Il fut le mari du top-model néerlandais Lara Stone de 2010 à 2015, jusqu'à leur divorce. Ensemble, ils ont un fils, Alfred, né le 5 mai 2013[8].
-En 2014, pour son ouvrage jeunesse  Monsieur Kipu (Mr Stink) illustré par Quentin Blake, il est lauréat du Prix Tam-Tam[9].
+En 2012, il devient juge dans l'émission Britain's Got Talent sur ITV1.
+Il se consacre à de nombreuses associations caritatives. Il a été membre de l'association National Youth Theatre qui aide les jeunes en difficulté au travers d'activités créatives, où il a rencontré son collègue de Little Britain Matt Lucas. Pour l'association Comic Relief, il relève plusieurs exploits sportifs dans le cadre de l'évènement Sport Relief. En août 2006, après neuf mois d'entrainement avec le champion olympique de pentathlon moderne Greg Whyte, il traverse la Manche à la nage en 10h34, rassemblant près d'un million de livres. En mars 2008, il traverse le détroit de Gibraltar en 4h36 avec le champion olympique d'aviron James Cracknell. En septembre 2011, il descend la Tamise à la nage sur 140 miles (225 km), de Lechlade à Londres, ce qui lui prend huit jours. Son exploit sportif rapporte plus d'un million de livres à l'association.
+Il fut le mari du top-model néerlandais Lara Stone de 2010 à 2015, jusqu'à leur divorce. Ensemble, ils ont un fils, Alfred, né le 5 mai 2013.
+En 2014, pour son ouvrage jeunesse  Monsieur Kipu (Mr Stink) illustré par Quentin Blake, il est lauréat du Prix Tam-Tam.
 </t>
         </is>
       </c>
@@ -552,7 +566,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cinéma
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1997 : Clancy's Kitchen de Duncan Roy : Présentateur de la cérémonie de récompenses
 1997 : Dennis Pennis R.I.P. : Anthony Cream Jnr. / Merlin Boast
 1999 : Guns 1748 (Plunkett &amp; Macleane) de Jake Scott : Vicomte Bilston
@@ -577,15 +597,91 @@
 2013 : Justin and the Knights of Valour de Manuel Sicilia : Melquiades (voix)
 2014 : Pudsey the Dog: The Movie de Nick Moore : Pudsey (voix)
 2019 : Murder Mystery de Kyle Newacheck
-Télévision
-Programme court
-1997 : Seven Sins: Wrath d'Annie Griffin : David Walliams lui-même
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>David_Walliams</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Walliams</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Programme court</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1997 : Seven Sins: Wrath d'Annie Griffin : David Walliams lui-même
 1999 : The Web of Caves de Mark Mylod : Chef alien
 1999 : The Pitch of Fear : Sydney Newman
 1999 : The Kidnappers de Mark Mylod : David
-2012 : La Sorcière dans les airs (Room on the Broom) de Jan Lachauer et Max Lang : Grenouille (voix)
-Téléfilm
-1997 : It's Ulrika! de John Birkin : Divers personnages
+2012 : La Sorcière dans les airs (Room on the Broom) de Jan Lachauer et Max Lang : Grenouille (voix)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>David_Walliams</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Walliams</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Téléfilm</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1997 : It's Ulrika! de John Birkin : Divers personnages
 1998 : You Are Here de John Birkin : Murray Moffatt
 1999 : Coming Soon d'Annie Griffin : Grame Cunliffe
 2002 : George Eliot: A Scandalous Life de Mary Downes : John Chapman
@@ -596,8 +692,47 @@
 2010 : The One Ronnie de Geoff Posner : Divers personnages
 2012 : The Greatest Footie Ads Ever de Peter Orton : Lou
 2012 : Mr. Stink de Declan Lowney : Premier Ministre
-2013 : Gangsta Granny de Matt Lipsey : Mike
-Série télévisée
+2013 : Gangsta Granny de Matt Lipsey : Mike</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>David_Walliams</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Walliams</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série télévisée</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1994 : Incredible Games : Sam the Lift (voix)
 1994 : Games World : Lesley (2 épisodes)
 1996 : Mash and Peas (série de sketchs) : Gareth Peas
@@ -642,31 +777,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>David_Walliams</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/David_Walliams</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Jeu vidéo</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2000 : Deep Fighter : Deav (voix et visage)
 2006 : Little Britain: The Game : Divers personnages
@@ -674,34 +811,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>David_Walliams</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/David_Walliams</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Récompenses
-British Comedy Awards 2003 : Meilleure nouvelle comédie pour Little Britain
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>British Comedy Awards 2003 : Meilleure nouvelle comédie pour Little Britain
 BAFTA 2004 : Meilleure série comique pour Little Britain
 British Comedy Awards 2004 : Meilleur acteur de télévision dans un rôle comique pour Little Britain
 Royal Television Society Awards 2004 : Meilleure performance dans un rôle comique pour Little Britain
@@ -712,9 +854,43 @@
 National Television Awards 2006 : Special Recognition Award
 TV Quick Awards 2006 : Meilleur programme comique pour Little Britain
 National Television Awards 2012 : Landmark Achievement Award
-Prix Tam-Tam 2014 pour  son ouvrage jeunesse Monsieur Kipu[9] (Mr Stink) illustré par Quentin Blake
-Nominations
-BAFTA 2004 : Meilleure performance dans un rôle comique pour Little Britain
+Prix Tam-Tam 2014 pour  son ouvrage jeunesse Monsieur Kipu (Mr Stink) illustré par Quentin Blake</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>David_Walliams</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Walliams</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>BAFTA 2004 : Meilleure performance dans un rôle comique pour Little Britain
 International Emmy Awards 2004 : Meilleure performance d'acteur pour Little Britain
 British Comedy Awards 2005 : Meilleur acteur de télévision dans un rôle comique pour Little Britain
 BAFTA 2006 : Meilleure série comique pour Little Britain
